--- a/doc/Onlyfly初稿策划案8.18.xlsx
+++ b/doc/Onlyfly初稿策划案8.18.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -863,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5996940" y="1630680"/>
-          <a:ext cx="3300730" cy="1612265"/>
+          <a:off x="5448300" y="1693545"/>
+          <a:ext cx="2957830" cy="1715135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,8 +898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9203055" y="1680210"/>
-          <a:ext cx="601980" cy="173355"/>
+          <a:off x="8311515" y="1743075"/>
+          <a:ext cx="533400" cy="184785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -946,8 +947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2125345" y="1732280"/>
-          <a:ext cx="2056130" cy="734060"/>
+          <a:off x="1919605" y="1795145"/>
+          <a:ext cx="1850390" cy="779780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -993,8 +994,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6009005" y="1397635"/>
-          <a:ext cx="208915" cy="262255"/>
+          <a:off x="5460365" y="1437640"/>
+          <a:ext cx="140335" cy="285115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1041,8 +1042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2279015" y="4804410"/>
-          <a:ext cx="3968115" cy="2878455"/>
+          <a:off x="2073275" y="5073015"/>
+          <a:ext cx="3556635" cy="3072765"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -1099,8 +1100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758440" y="2466340"/>
-          <a:ext cx="2846070" cy="1318895"/>
+          <a:off x="2484120" y="2574925"/>
+          <a:ext cx="2571750" cy="1410335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,8 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="5176520"/>
-          <a:ext cx="10200640" cy="4807585"/>
+          <a:off x="5707380" y="5467985"/>
+          <a:ext cx="9171940" cy="5127625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,8 +1176,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="22425025" y="4664710"/>
-          <a:ext cx="11430" cy="525780"/>
+          <a:off x="20230465" y="4921885"/>
+          <a:ext cx="11430" cy="560070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1223,8 +1224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8224520" y="5693410"/>
-          <a:ext cx="5723890" cy="320040"/>
+          <a:off x="7406640" y="6019165"/>
+          <a:ext cx="5170170" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="round2DiagRect">
           <a:avLst/>
@@ -1274,8 +1275,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13915390" y="5476875"/>
-          <a:ext cx="3191510" cy="320675"/>
+          <a:off x="12543790" y="5791200"/>
+          <a:ext cx="2886710" cy="343535"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1321,8 +1322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9428480" y="5990590"/>
-          <a:ext cx="7689215" cy="366395"/>
+          <a:off x="8536940" y="6339205"/>
+          <a:ext cx="6893560" cy="389255"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1368,8 +1369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7326630" y="6069330"/>
-          <a:ext cx="2157095" cy="880110"/>
+          <a:off x="6640830" y="6417945"/>
+          <a:ext cx="1951355" cy="948690"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1426,8 +1427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12622530" y="6781800"/>
-          <a:ext cx="4542790" cy="741680"/>
+          <a:off x="11388090" y="7187565"/>
+          <a:ext cx="4062730" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1477,8 +1478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9091295" y="7007860"/>
-          <a:ext cx="4397375" cy="1565275"/>
+          <a:off x="8199755" y="7425055"/>
+          <a:ext cx="3985895" cy="1668145"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1541,8 +1542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5815965" y="11925935"/>
-          <a:ext cx="6389370" cy="3129280"/>
+          <a:off x="5267325" y="12674600"/>
+          <a:ext cx="5772150" cy="3335020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,8 +1576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7776845" y="10725150"/>
-          <a:ext cx="414655" cy="1278255"/>
+          <a:off x="7022465" y="11393805"/>
+          <a:ext cx="384175" cy="1358265"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1642,8 +1643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2483485" y="16764000"/>
-          <a:ext cx="6347460" cy="3198495"/>
+          <a:off x="2277745" y="17832705"/>
+          <a:ext cx="5730240" cy="3404235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,8 +1679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6369685" y="2482850"/>
-          <a:ext cx="516890" cy="2033905"/>
+          <a:off x="5701030" y="2768600"/>
+          <a:ext cx="551180" cy="1828165"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1728,8 +1729,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="7108825" y="856615"/>
-          <a:ext cx="1390650" cy="7246620"/>
+          <a:off x="6308725" y="1445260"/>
+          <a:ext cx="1482090" cy="6560820"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1755,6 +1756,275 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16683990" y="18404205"/>
+          <a:ext cx="5481320" cy="506730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>飞船是受到引力的影响的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>脱落引力进入太空后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>飞船的自由落体效果不存在了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>游戏核心的回家也没了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>537845</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17202785" y="19900900"/>
+          <a:ext cx="4280535" cy="582930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>回家的效果完全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>由向上的卷轴游戏代替</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  ,    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>飞船消亡的因素是什么</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>什么会使飞船毁灭导致重新发射</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820150" y="16584930"/>
+          <a:ext cx="3929380" cy="405765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使玩家不断发射火箭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>就需要玩家的飞船不断毁灭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2012,13 +2282,13 @@
   <sheetPr/>
   <dimension ref="A1:AQ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:17">
+    <row r="1" ht="32.4" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2536,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2283,10 +2553,26 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>